--- a/推荐数据.xlsx
+++ b/推荐数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fqx/Dropbox/天坑企划/拉力赛/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fqx/Dropbox/LLS3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB6F35-A750-8943-B9BB-19564ABA3952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D31A865-CB9A-D245-B633-32B36D309A92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{419EA485-F105-1C4F-9161-13D02683F790}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{419EA485-F105-1C4F-9161-13D02683F790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="135">
   <si>
     <t>组别</t>
   </si>
@@ -379,6 +379,66 @@
   </si>
   <si>
     <t>白夜</t>
+  </si>
+  <si>
+    <t>东北凯瑟琳</t>
+  </si>
+  <si>
+    <t>语山堰</t>
+  </si>
+  <si>
+    <t>谢又清</t>
+  </si>
+  <si>
+    <t>林逸野</t>
+  </si>
+  <si>
+    <t>vec</t>
+  </si>
+  <si>
+    <t>一见青山</t>
+  </si>
+  <si>
+    <t>有点闲</t>
+  </si>
+  <si>
+    <t>王富贵</t>
+  </si>
+  <si>
+    <t>李牧羊</t>
+  </si>
+  <si>
+    <t>墨池走大街</t>
+  </si>
+  <si>
+    <t>史迈</t>
+  </si>
+  <si>
+    <t>燕玖</t>
+  </si>
+  <si>
+    <t>河星</t>
+  </si>
+  <si>
+    <t>大鲤五色</t>
+  </si>
+  <si>
+    <t>祐树</t>
+  </si>
+  <si>
+    <t>非龍</t>
+  </si>
+  <si>
+    <t>苏辰</t>
+  </si>
+  <si>
+    <t>七桃白相</t>
+  </si>
+  <si>
+    <t>岑空</t>
+  </si>
+  <si>
+    <t>陈小朵</t>
   </si>
 </sst>
 </file>
@@ -731,11 +791,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81808AD0-18F3-0949-B3BE-CC853818480C}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,576 +1222,576 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>3045</v>
+        <v>1560</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2041</v>
+        <v>1266</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>28</v>
+      <c r="A24" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1643</v>
+        <v>1231</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1016</v>
+        <v>921</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
+      <c r="A26" t="s">
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>735</v>
+        <v>834</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>31</v>
+      <c r="A27" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>687</v>
+        <v>613</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
+      <c r="A29" t="s">
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>612</v>
+        <v>515</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>603</v>
+        <v>488</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>427</v>
+        <v>352</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
+      <c r="A34" t="s">
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
+        <v>205</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>137</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>122</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>95</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>91</v>
-      </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
+      <c r="A40" t="s">
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
+      <c r="A41" t="s">
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
+      <c r="A42" t="s">
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1560</v>
+        <v>1118</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1266</v>
+        <v>1106</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>1231</v>
+        <v>639</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>52</v>
+      <c r="A45" t="s">
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>921</v>
+        <v>374</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>834</v>
+        <v>355</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>613</v>
+        <v>312</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>55</v>
+      <c r="A48" t="s">
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>611</v>
+        <v>311</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>56</v>
+      <c r="A49" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>573</v>
+        <v>308</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>515</v>
+        <v>296</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1742,376 +1802,376 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>488</v>
+        <v>291</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>352</v>
+        <v>166</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>60</v>
+      <c r="A53" t="s">
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>62</v>
+      <c r="A55" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>63</v>
+      <c r="A56" t="s">
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>65</v>
+      <c r="A58" t="s">
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>68</v>
+      <c r="A61" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>70</v>
+      <c r="A62" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1118</v>
+        <v>3045</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>1106</v>
+        <v>2041</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>72</v>
+      <c r="A64" t="s">
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>639</v>
+        <v>1643</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>73</v>
+      <c r="A65" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>374</v>
+        <v>1016</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>74</v>
+      <c r="A66" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>355</v>
+        <v>735</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>75</v>
+      <c r="A67" t="s">
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>312</v>
+        <v>687</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>76</v>
+      <c r="A68" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>311</v>
+        <v>670</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>308</v>
+        <v>646</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2122,96 +2182,96 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>296</v>
+        <v>612</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>291</v>
+        <v>603</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>166</v>
+        <v>427</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>80</v>
+      <c r="A73" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
+        <v>178</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
         <v>122</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>91</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2222,96 +2282,96 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
+        <v>73</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
         <v>15</v>
       </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>85</v>
+      <c r="A78" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2321,17 +2381,17 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>87</v>
+      <c r="A80" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2342,16 +2402,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2662,136 +2722,136 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>5885</v>
+        <v>1637</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>3723</v>
+        <v>1471</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>28</v>
+      <c r="A99" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>1958</v>
+        <v>1436</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>1551</v>
+        <v>1198</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>1128</v>
+        <v>974</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>1048</v>
+        <v>842</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>926</v>
+        <v>780</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -2801,451 +2861,451 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>96</v>
+      <c r="A104" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>920</v>
+        <v>694</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>908</v>
+        <v>636</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106">
-        <v>894</v>
+        <v>624</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>444</v>
+        <v>224</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>98</v>
+      <c r="A108" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>101</v>
+      <c r="A111" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>48</v>
+      <c r="A112" t="s">
+        <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>1637</v>
+        <v>1090</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>1471</v>
+        <v>747</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>1436</v>
+        <v>728</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>1198</v>
+        <v>639</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>974</v>
+        <v>550</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>842</v>
+        <v>530</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>780</v>
+        <v>506</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>59</v>
+      <c r="A119" t="s">
+        <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>694</v>
+        <v>505</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>58</v>
+      <c r="A120" t="s">
+        <v>76</v>
       </c>
       <c r="B120" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>636</v>
+        <v>503</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>624</v>
+        <v>419</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>103</v>
+      <c r="A123" t="s">
+        <v>111</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B125" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B126" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -3257,241 +3317,241 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>71</v>
+      <c r="A127" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>1090</v>
+        <v>5885</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>747</v>
+        <v>3723</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>72</v>
+      <c r="A129" t="s">
+        <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>728</v>
+        <v>1958</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>639</v>
+        <v>1551</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B131" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>550</v>
+        <v>1128</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="B132" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>530</v>
+        <v>1048</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B133" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>506</v>
+        <v>926</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B134" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>505</v>
+        <v>920</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>76</v>
+      <c r="A135" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>503</v>
+        <v>908</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B136" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>419</v>
+        <v>894</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B137" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B138" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -3502,67 +3562,1270 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B139" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B140" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B141" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>10912</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>5199</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>5139</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>2635</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146">
+        <v>2480</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>2395</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>1524</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>1353</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>999</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>886</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>299</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>116</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>52</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>39</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>31</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>8</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B157" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>1918</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>1655</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B159" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>1556</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B160" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>1493</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" t="s">
+        <v>47</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>1222</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>1054</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B163" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>976</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>53</v>
+      </c>
+      <c r="B164" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>699</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>61</v>
+      </c>
+      <c r="B165" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>609</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B166" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>591</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>125</v>
+      </c>
+      <c r="B167" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>121</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>126</v>
+      </c>
+      <c r="B168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>83</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>127</v>
+      </c>
+      <c r="B169" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>56</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>128</v>
+      </c>
+      <c r="B170" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>18</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>129</v>
+      </c>
+      <c r="B171" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>71</v>
+      </c>
+      <c r="B172" t="s">
+        <v>69</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>1778</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B173" t="s">
+        <v>69</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>995</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>70</v>
+      </c>
+      <c r="B174" t="s">
+        <v>69</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>883</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B175" t="s">
+        <v>69</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>760</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B176" t="s">
+        <v>69</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>754</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B177" t="s">
+        <v>69</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>703</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>73</v>
+      </c>
+      <c r="B178" t="s">
+        <v>69</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>569</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B179" t="s">
+        <v>69</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>548</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>76</v>
+      </c>
+      <c r="B180" t="s">
+        <v>69</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>497</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>74</v>
+      </c>
+      <c r="B181" t="s">
+        <v>69</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>494</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>130</v>
+      </c>
+      <c r="B182" t="s">
+        <v>69</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>128</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>131</v>
+      </c>
+      <c r="B183" t="s">
+        <v>69</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>78</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>132</v>
+      </c>
+      <c r="B184" t="s">
+        <v>69</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>23</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>133</v>
+      </c>
+      <c r="B185" t="s">
+        <v>69</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>15</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>134</v>
+      </c>
+      <c r="B186" t="s">
+        <v>69</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>8562</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>3711</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>28</v>
+      </c>
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>2179</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B190" t="s">
+        <v>25</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>2047</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>1626</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>1511</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>32</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>1484</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B194" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>1248</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195">
+        <v>1228</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>96</v>
+      </c>
+      <c r="B196" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>940</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>120</v>
+      </c>
+      <c r="B197" t="s">
+        <v>25</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>74</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>121</v>
+      </c>
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>32</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>122</v>
+      </c>
+      <c r="B199" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>32</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>123</v>
+      </c>
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>8</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>124</v>
+      </c>
+      <c r="B201" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:F141">
-    <sortCondition descending="1" ref="D127:D141"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F237">
+    <sortCondition ref="C2:C237"/>
+    <sortCondition descending="1" ref="B2:B237"/>
+    <sortCondition descending="1" ref="D2:D237"/>
+    <sortCondition ref="E2:E237"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/推荐数据.xlsx
+++ b/推荐数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fqx/Dropbox/LLS3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D31A865-CB9A-D245-B633-32B36D309A92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A151B657-7DDC-8441-97C0-F4B0437EAB8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{419EA485-F105-1C4F-9161-13D02683F790}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="156">
   <si>
     <t>组别</t>
   </si>
@@ -439,6 +439,69 @@
   </si>
   <si>
     <t>陈小朵</t>
+  </si>
+  <si>
+    <t>墨染鱼摆摆</t>
+  </si>
+  <si>
+    <t>小梅妮卡</t>
+  </si>
+  <si>
+    <t>李青澜</t>
+  </si>
+  <si>
+    <t>糖水芋头</t>
+  </si>
+  <si>
+    <t>小熊壮汉</t>
+  </si>
+  <si>
+    <t>慕容素衣</t>
+  </si>
+  <si>
+    <t>王千斤</t>
+  </si>
+  <si>
+    <t>王家小林</t>
+  </si>
+  <si>
+    <t>苏羡眯</t>
+  </si>
+  <si>
+    <t>二月风和</t>
+  </si>
+  <si>
+    <t>乌鸦哥哥</t>
+  </si>
+  <si>
+    <t>阙特勤</t>
+  </si>
+  <si>
+    <t>木易桑</t>
+  </si>
+  <si>
+    <t>踏夜白泽</t>
+  </si>
+  <si>
+    <t>马鹿</t>
+  </si>
+  <si>
+    <t>六熏</t>
+  </si>
+  <si>
+    <t>阙凝</t>
+  </si>
+  <si>
+    <t>爱烤火的鱼</t>
+  </si>
+  <si>
+    <t>叶茶</t>
+  </si>
+  <si>
+    <t>端端</t>
+  </si>
+  <si>
+    <t>怪兽鱼</t>
   </si>
 </sst>
 </file>
@@ -474,9 +537,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,11 +853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81808AD0-18F3-0949-B3BE-CC853818480C}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,7 +883,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -861,7 +923,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
@@ -901,7 +963,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
@@ -921,7 +983,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -981,7 +1043,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -1021,7 +1083,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
@@ -1041,7 +1103,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
@@ -1081,7 +1143,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
@@ -1141,7 +1203,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
@@ -1161,7 +1223,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
@@ -1181,7 +1243,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
@@ -1201,7 +1263,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
@@ -1221,7 +1283,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" t="s">
@@ -1261,7 +1323,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
@@ -1281,7 +1343,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" t="s">
@@ -1321,7 +1383,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="B27" t="s">
@@ -1341,7 +1403,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
@@ -1381,7 +1443,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>57</v>
       </c>
       <c r="B30" t="s">
@@ -1401,7 +1463,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
@@ -1421,7 +1483,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
@@ -1441,7 +1503,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>60</v>
       </c>
       <c r="B33" t="s">
@@ -1501,7 +1563,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
       <c r="B36" t="s">
@@ -1521,7 +1583,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>64</v>
       </c>
       <c r="B37" t="s">
@@ -1541,7 +1603,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>65</v>
       </c>
       <c r="B38" t="s">
@@ -1561,7 +1623,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>66</v>
       </c>
       <c r="B39" t="s">
@@ -1661,7 +1723,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>72</v>
       </c>
       <c r="B44" t="s">
@@ -1721,7 +1783,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>75</v>
       </c>
       <c r="B47" t="s">
@@ -1761,7 +1823,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>77</v>
       </c>
       <c r="B49" t="s">
@@ -1781,7 +1843,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>78</v>
       </c>
       <c r="B50" t="s">
@@ -1801,7 +1863,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>79</v>
       </c>
       <c r="B51" t="s">
@@ -1821,7 +1883,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>109</v>
       </c>
       <c r="B52" t="s">
@@ -1881,7 +1943,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>82</v>
       </c>
       <c r="B55" t="s">
@@ -1921,7 +1983,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>84</v>
       </c>
       <c r="B57" t="s">
@@ -1961,7 +2023,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>86</v>
       </c>
       <c r="B59" t="s">
@@ -2001,7 +2063,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>88</v>
       </c>
       <c r="B61" t="s">
@@ -2021,7 +2083,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>26</v>
       </c>
       <c r="B62" t="s">
@@ -2081,7 +2143,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>29</v>
       </c>
       <c r="B65" t="s">
@@ -2101,7 +2163,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>30</v>
       </c>
       <c r="B66" t="s">
@@ -2141,7 +2203,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>32</v>
       </c>
       <c r="B68" t="s">
@@ -2161,7 +2223,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>33</v>
       </c>
       <c r="B69" t="s">
@@ -2181,7 +2243,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>34</v>
       </c>
       <c r="B70" t="s">
@@ -2201,7 +2263,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>35</v>
       </c>
       <c r="B71" t="s">
@@ -2221,7 +2283,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>36</v>
       </c>
       <c r="B72" t="s">
@@ -2241,7 +2303,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>37</v>
       </c>
       <c r="B73" t="s">
@@ -2261,7 +2323,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>38</v>
       </c>
       <c r="B74" t="s">
@@ -2281,7 +2343,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>40</v>
       </c>
       <c r="B75" t="s">
@@ -2321,7 +2383,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>42</v>
       </c>
       <c r="B77" t="s">
@@ -2341,7 +2403,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>43</v>
       </c>
       <c r="B78" t="s">
@@ -2361,7 +2423,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>44</v>
       </c>
       <c r="B79" t="s">
@@ -2381,7 +2443,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>45</v>
       </c>
       <c r="B80" t="s">
@@ -2401,7 +2463,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>46</v>
       </c>
       <c r="B81" t="s">
@@ -2421,7 +2483,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>4</v>
       </c>
       <c r="B82" t="s">
@@ -2461,7 +2523,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>7</v>
       </c>
       <c r="B84" t="s">
@@ -2521,7 +2583,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="B87" t="s">
@@ -2541,7 +2603,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>16</v>
       </c>
       <c r="B88" t="s">
@@ -2581,7 +2643,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>13</v>
       </c>
       <c r="B90" t="s">
@@ -2601,7 +2663,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>10</v>
       </c>
       <c r="B91" t="s">
@@ -2721,7 +2783,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>48</v>
       </c>
       <c r="B97" t="s">
@@ -2761,7 +2823,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>52</v>
       </c>
       <c r="B99" t="s">
@@ -2781,7 +2843,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>51</v>
       </c>
       <c r="B100" t="s">
@@ -2801,7 +2863,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>55</v>
       </c>
       <c r="B101" t="s">
@@ -2821,7 +2883,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>54</v>
       </c>
       <c r="B102" t="s">
@@ -2841,7 +2903,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>57</v>
       </c>
       <c r="B103" t="s">
@@ -2861,7 +2923,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>59</v>
       </c>
       <c r="B104" t="s">
@@ -2881,7 +2943,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>58</v>
       </c>
       <c r="B105" t="s">
@@ -2921,7 +2983,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>102</v>
       </c>
       <c r="B107" t="s">
@@ -2941,7 +3003,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>103</v>
       </c>
       <c r="B108" t="s">
@@ -3001,7 +3063,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>106</v>
       </c>
       <c r="B111" t="s">
@@ -3061,7 +3123,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>72</v>
       </c>
       <c r="B114" t="s">
@@ -3081,7 +3143,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>77</v>
       </c>
       <c r="B115" t="s">
@@ -3101,7 +3163,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>75</v>
       </c>
       <c r="B116" t="s">
@@ -3121,7 +3183,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>107</v>
       </c>
       <c r="B117" t="s">
@@ -3141,7 +3203,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>108</v>
       </c>
       <c r="B118" t="s">
@@ -3221,7 +3283,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>110</v>
       </c>
       <c r="B122" t="s">
@@ -3301,7 +3363,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>114</v>
       </c>
       <c r="B126" t="s">
@@ -3321,7 +3383,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>26</v>
       </c>
       <c r="B127" t="s">
@@ -3381,7 +3443,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>29</v>
       </c>
       <c r="B130" t="s">
@@ -3401,7 +3463,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>33</v>
       </c>
       <c r="B131" t="s">
@@ -3421,7 +3483,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>34</v>
       </c>
       <c r="B132" t="s">
@@ -3441,7 +3503,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>95</v>
       </c>
       <c r="B133" t="s">
@@ -3481,7 +3543,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>35</v>
       </c>
       <c r="B135" t="s">
@@ -3521,7 +3583,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>97</v>
       </c>
       <c r="B137" t="s">
@@ -3621,7 +3683,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>4</v>
       </c>
       <c r="B142" t="s">
@@ -3661,7 +3723,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>7</v>
       </c>
       <c r="B144" t="s">
@@ -3701,7 +3763,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>9</v>
       </c>
       <c r="B146" t="s">
@@ -3741,7 +3803,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>13</v>
       </c>
       <c r="B148" t="s">
@@ -3761,7 +3823,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>16</v>
       </c>
       <c r="B149" t="s">
@@ -3801,7 +3863,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>17</v>
       </c>
       <c r="B151" t="s">
@@ -3821,7 +3883,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>115</v>
       </c>
       <c r="B152" t="s">
@@ -3901,7 +3963,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>119</v>
       </c>
       <c r="B156" t="s">
@@ -3941,7 +4003,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>48</v>
       </c>
       <c r="B158" t="s">
@@ -3961,7 +4023,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>52</v>
       </c>
       <c r="B159" t="s">
@@ -3981,7 +4043,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>51</v>
       </c>
       <c r="B160" t="s">
@@ -4001,7 +4063,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>55</v>
       </c>
       <c r="B161" t="s">
@@ -4021,7 +4083,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>54</v>
       </c>
       <c r="B162" t="s">
@@ -4041,7 +4103,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>57</v>
       </c>
       <c r="B163" t="s">
@@ -4101,7 +4163,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>59</v>
       </c>
       <c r="B166" t="s">
@@ -4241,7 +4303,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>75</v>
       </c>
       <c r="B173" t="s">
@@ -4281,7 +4343,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>107</v>
       </c>
       <c r="B175" t="s">
@@ -4301,7 +4363,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>72</v>
       </c>
       <c r="B176" t="s">
@@ -4321,7 +4383,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>108</v>
       </c>
       <c r="B177" t="s">
@@ -4361,7 +4423,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>77</v>
       </c>
       <c r="B179" t="s">
@@ -4521,28 +4583,28 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>26</v>
+      <c r="A187" t="s">
+        <v>155</v>
       </c>
       <c r="B187" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C187">
         <v>3</v>
       </c>
       <c r="D187">
-        <v>8562</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B188" t="s">
         <v>25</v>
@@ -4551,158 +4613,158 @@
         <v>3</v>
       </c>
       <c r="D188">
-        <v>3711</v>
+        <v>8562</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>3711</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>28</v>
       </c>
-      <c r="B189" t="s">
-        <v>25</v>
-      </c>
-      <c r="C189">
-        <v>3</v>
-      </c>
-      <c r="D189">
+      <c r="B190" t="s">
+        <v>25</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
         <v>2179</v>
       </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>33</v>
       </c>
-      <c r="B190" t="s">
-        <v>25</v>
-      </c>
-      <c r="C190">
-        <v>3</v>
-      </c>
-      <c r="D190">
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
         <v>2047</v>
       </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>95</v>
       </c>
-      <c r="B191" t="s">
-        <v>25</v>
-      </c>
-      <c r="C191">
-        <v>3</v>
-      </c>
-      <c r="D191">
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
         <v>1626</v>
       </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B192" t="s">
-        <v>25</v>
-      </c>
-      <c r="C192">
-        <v>3</v>
-      </c>
-      <c r="D192">
-        <v>1511</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
       <c r="F192">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>29</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>1511</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>32</v>
       </c>
-      <c r="B193" t="s">
-        <v>25</v>
-      </c>
-      <c r="C193">
-        <v>3</v>
-      </c>
-      <c r="D193">
+      <c r="B194" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
         <v>1484</v>
       </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>35</v>
       </c>
-      <c r="B194" t="s">
-        <v>25</v>
-      </c>
-      <c r="C194">
-        <v>3</v>
-      </c>
-      <c r="D194">
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195">
         <v>1248</v>
       </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
         <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B195" t="s">
-        <v>25</v>
-      </c>
-      <c r="C195">
-        <v>3</v>
-      </c>
-      <c r="D195">
-        <v>1228</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B196" t="s">
         <v>25</v>
@@ -4711,18 +4773,18 @@
         <v>3</v>
       </c>
       <c r="D196">
-        <v>940</v>
+        <v>1228</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B197" t="s">
         <v>25</v>
@@ -4731,18 +4793,18 @@
         <v>3</v>
       </c>
       <c r="D197">
-        <v>74</v>
+        <v>940</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B198" t="s">
         <v>25</v>
@@ -4751,18 +4813,18 @@
         <v>3</v>
       </c>
       <c r="D198">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B199" t="s">
         <v>25</v>
@@ -4782,7 +4844,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B200" t="s">
         <v>25</v>
@@ -4791,7 +4853,7 @@
         <v>3</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -4802,30 +4864,1230 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>123</v>
+      </c>
+      <c r="B201" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>124</v>
       </c>
-      <c r="B201" t="s">
-        <v>25</v>
-      </c>
-      <c r="C201">
-        <v>3</v>
-      </c>
-      <c r="D201">
-        <v>2</v>
-      </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-      <c r="F201">
+      <c r="B202" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
         <v>9</v>
       </c>
     </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+      <c r="D203">
+        <v>15327</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>4</v>
+      </c>
+      <c r="D204">
+        <v>5943</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>4</v>
+      </c>
+      <c r="D205">
+        <v>5623</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+      <c r="D206">
+        <v>2909</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207">
+        <v>2763</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>4</v>
+      </c>
+      <c r="D208">
+        <v>2444</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>2066</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>16</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>4</v>
+      </c>
+      <c r="D210">
+        <v>1262</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211">
+        <v>1160</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>89</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>4</v>
+      </c>
+      <c r="D212">
+        <v>972</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>135</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>153</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>136</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>4</v>
+      </c>
+      <c r="D214">
+        <v>89</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>137</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <v>75</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>138</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+      <c r="D216">
+        <v>49</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>139</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>4</v>
+      </c>
+      <c r="D217">
+        <v>49</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>49</v>
+      </c>
+      <c r="B218" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218">
+        <v>4</v>
+      </c>
+      <c r="D218">
+        <v>1697</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>51</v>
+      </c>
+      <c r="B219" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219">
+        <v>4</v>
+      </c>
+      <c r="D219">
+        <v>1643</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>52</v>
+      </c>
+      <c r="B220" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220">
+        <v>4</v>
+      </c>
+      <c r="D220">
+        <v>1457</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>55</v>
+      </c>
+      <c r="B221" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+      <c r="D221">
+        <v>1432</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>48</v>
+      </c>
+      <c r="B222" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222">
+        <v>4</v>
+      </c>
+      <c r="D222">
+        <v>1261</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>54</v>
+      </c>
+      <c r="B223" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <v>1068</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>61</v>
+      </c>
+      <c r="B224" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224">
+        <v>4</v>
+      </c>
+      <c r="D224">
+        <v>1044</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>57</v>
+      </c>
+      <c r="B225" t="s">
+        <v>47</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+      <c r="D225">
+        <v>982</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>59</v>
+      </c>
+      <c r="B226" t="s">
+        <v>47</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="D226">
+        <v>650</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>53</v>
+      </c>
+      <c r="B227" t="s">
+        <v>47</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+      <c r="D227">
+        <v>583</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>145</v>
+      </c>
+      <c r="B228" t="s">
+        <v>47</v>
+      </c>
+      <c r="C228">
+        <v>4</v>
+      </c>
+      <c r="D228">
+        <v>265</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>146</v>
+      </c>
+      <c r="B229" t="s">
+        <v>47</v>
+      </c>
+      <c r="C229">
+        <v>4</v>
+      </c>
+      <c r="D229">
+        <v>69</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>147</v>
+      </c>
+      <c r="B230" t="s">
+        <v>47</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+      <c r="D230">
+        <v>65</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>148</v>
+      </c>
+      <c r="B231" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+      <c r="D231">
+        <v>33</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>149</v>
+      </c>
+      <c r="B232" t="s">
+        <v>47</v>
+      </c>
+      <c r="C232">
+        <v>4</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>71</v>
+      </c>
+      <c r="B233" t="s">
+        <v>69</v>
+      </c>
+      <c r="C233">
+        <v>4</v>
+      </c>
+      <c r="D233">
+        <v>1872</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>75</v>
+      </c>
+      <c r="B234" t="s">
+        <v>69</v>
+      </c>
+      <c r="C234">
+        <v>4</v>
+      </c>
+      <c r="D234">
+        <v>1358</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>70</v>
+      </c>
+      <c r="B235" t="s">
+        <v>69</v>
+      </c>
+      <c r="C235">
+        <v>4</v>
+      </c>
+      <c r="D235">
+        <v>949</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>74</v>
+      </c>
+      <c r="B236" t="s">
+        <v>69</v>
+      </c>
+      <c r="C236">
+        <v>4</v>
+      </c>
+      <c r="D236">
+        <v>928</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>72</v>
+      </c>
+      <c r="B237" t="s">
+        <v>69</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+      <c r="D237">
+        <v>767</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>108</v>
+      </c>
+      <c r="B238" t="s">
+        <v>69</v>
+      </c>
+      <c r="C238">
+        <v>4</v>
+      </c>
+      <c r="D238">
+        <v>701</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>107</v>
+      </c>
+      <c r="B239" t="s">
+        <v>69</v>
+      </c>
+      <c r="C239">
+        <v>4</v>
+      </c>
+      <c r="D239">
+        <v>693</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>73</v>
+      </c>
+      <c r="B240" t="s">
+        <v>69</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+      <c r="D240">
+        <v>617</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>76</v>
+      </c>
+      <c r="B241" t="s">
+        <v>69</v>
+      </c>
+      <c r="C241">
+        <v>4</v>
+      </c>
+      <c r="D241">
+        <v>580</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>150</v>
+      </c>
+      <c r="B242" t="s">
+        <v>69</v>
+      </c>
+      <c r="C242">
+        <v>4</v>
+      </c>
+      <c r="D242">
+        <v>575</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>151</v>
+      </c>
+      <c r="B243" t="s">
+        <v>69</v>
+      </c>
+      <c r="C243">
+        <v>4</v>
+      </c>
+      <c r="D243">
+        <v>235</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>152</v>
+      </c>
+      <c r="B244" t="s">
+        <v>69</v>
+      </c>
+      <c r="C244">
+        <v>4</v>
+      </c>
+      <c r="D244">
+        <v>33</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>153</v>
+      </c>
+      <c r="B245" t="s">
+        <v>69</v>
+      </c>
+      <c r="C245">
+        <v>4</v>
+      </c>
+      <c r="D245">
+        <v>3</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>154</v>
+      </c>
+      <c r="B246" t="s">
+        <v>69</v>
+      </c>
+      <c r="C246">
+        <v>4</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>26</v>
+      </c>
+      <c r="B247" t="s">
+        <v>25</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247">
+        <v>9743</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248">
+        <v>4351</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>33</v>
+      </c>
+      <c r="B249" t="s">
+        <v>25</v>
+      </c>
+      <c r="C249">
+        <v>4</v>
+      </c>
+      <c r="D249">
+        <v>2419</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>28</v>
+      </c>
+      <c r="B250" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250">
+        <v>4</v>
+      </c>
+      <c r="D250">
+        <v>2357</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>95</v>
+      </c>
+      <c r="B251" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251">
+        <v>4</v>
+      </c>
+      <c r="D251">
+        <v>2217</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>29</v>
+      </c>
+      <c r="B252" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+      <c r="D252">
+        <v>1452</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>34</v>
+      </c>
+      <c r="B253" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253">
+        <v>4</v>
+      </c>
+      <c r="D253">
+        <v>1332</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>96</v>
+      </c>
+      <c r="B254" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254">
+        <v>4</v>
+      </c>
+      <c r="D254">
+        <v>1135</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>35</v>
+      </c>
+      <c r="B255" t="s">
+        <v>25</v>
+      </c>
+      <c r="C255">
+        <v>4</v>
+      </c>
+      <c r="D255">
+        <v>1133</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>32</v>
+      </c>
+      <c r="B256" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+      <c r="D256">
+        <v>1094</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>140</v>
+      </c>
+      <c r="B257" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+      <c r="D257">
+        <v>141</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>141</v>
+      </c>
+      <c r="B258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258">
+        <v>12</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>142</v>
+      </c>
+      <c r="B259" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+      <c r="D259">
+        <v>6</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>143</v>
+      </c>
+      <c r="B260" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+      <c r="D260">
+        <v>6</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>144</v>
+      </c>
+      <c r="B261" t="s">
+        <v>25</v>
+      </c>
+      <c r="C261">
+        <v>4</v>
+      </c>
+      <c r="D261">
+        <v>4</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F237">
-    <sortCondition ref="C2:C237"/>
-    <sortCondition descending="1" ref="B2:B237"/>
-    <sortCondition descending="1" ref="D2:D237"/>
-    <sortCondition ref="E2:E237"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F265">
+    <sortCondition ref="C2:C265"/>
+    <sortCondition descending="1" ref="B2:B265"/>
+    <sortCondition descending="1" ref="D2:D265"/>
+    <sortCondition ref="E2:E265"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
